--- a/ConfigFiles/ConfigBE.xlsx
+++ b/ConfigFiles/ConfigBE.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="250">
   <si>
     <t xml:space="preserve">Dispa-SET Configuration File (v20.02)</t>
   </si>
@@ -201,7 +201,7 @@
     <t xml:space="preserve">Demand</t>
   </si>
   <si>
-    <t xml:space="preserve">Database/Load_RealTime/BE/1h/2015.csv</t>
+    <t xml:space="preserve">Database/Load_RealTime/##/1h/2023.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Flexible Demand</t>
@@ -210,13 +210,16 @@
     <t xml:space="preserve">Outages</t>
   </si>
   <si>
+    <t xml:space="preserve">Database/OutageFactors/##/1h/2023.csv </t>
+  </si>
+  <si>
     <t xml:space="preserve">This section provides the paths to the raw data used to generate the Dispa-SET simulation template. </t>
   </si>
   <si>
     <t xml:space="preserve">Power plant data</t>
   </si>
   <si>
-    <t xml:space="preserve">Database/PowerPlants/BE/2015.csv</t>
+    <t xml:space="preserve">Database/PowerPlants/##/2023.csv</t>
   </si>
   <si>
     <t xml:space="preserve">The path is an absolute path or a relative path to this config file</t>
@@ -225,7 +228,7 @@
     <t xml:space="preserve">Renewables AF</t>
   </si>
   <si>
-    <t xml:space="preserve">Database/AvailabilityFactors/BE/1h/2015.csv</t>
+    <t xml:space="preserve">Database/AvailabilityFactors/##/1h/2023.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Load Shedding</t>
@@ -237,19 +240,25 @@
     <t xml:space="preserve">NTC</t>
   </si>
   <si>
+    <t xml:space="preserve">Database/NTC/1h/2023.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">for example: </t>
   </si>
   <si>
     <t xml:space="preserve">Historical flows</t>
   </si>
   <si>
+    <t xml:space="preserve">Database/CrossBorderFlows/1h/2023.csv</t>
+  </si>
+  <si>
     <t xml:space="preserve">../data/Demand/##/2014/load.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Scaled inflows</t>
   </si>
   <si>
-    <t xml:space="preserve">Database/HydroData/ScaledInflows/BE/1h/2015.csv</t>
+    <t xml:space="preserve">Database/HydroData/ScaledInflows/##/1h/2023.csv</t>
   </si>
   <si>
     <t xml:space="preserve">will fetch one load.csv file per country, by replacing ## with FR, DE, NL, etc.</t>
@@ -258,7 +267,7 @@
     <t xml:space="preserve">Reservoir Levels</t>
   </si>
   <si>
-    <t xml:space="preserve">Database/HydroData/ReservoirLevel/BE/1h/2015.csv</t>
+    <t xml:space="preserve">Database/HydroData/ReservoirLevel/##/1h/2023.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Heat Demand</t>
@@ -303,6 +312,9 @@
     <t xml:space="preserve">Price of CO2</t>
   </si>
   <si>
+    <t xml:space="preserve">Source: https://dev-rad-carbon-pricing.pantheonsite.io/about#download-data</t>
+  </si>
+  <si>
     <t xml:space="preserve">Price of Unserved Heat</t>
   </si>
   <si>
@@ -346,6 +358,9 @@
   </si>
   <si>
     <t xml:space="preserve">Database/FuelPrices/Oil/2015.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ahdb.org.uk/fuel-prices</t>
   </si>
   <si>
     <t xml:space="preserve">Price of Biomass</t>
@@ -770,7 +785,7 @@
     <numFmt numFmtId="167" formatCode="@"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -831,6 +846,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -941,7 +962,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1082,8 +1103,12 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1094,7 +1119,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1317,8 +1342,8 @@
   </sheetPr>
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H172" activeCellId="0" sqref="H172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1624,7 +1649,7 @@
         <v>23</v>
       </c>
       <c r="C57" s="26" t="n">
-        <v>42005</v>
+        <v>44927</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>24</v>
@@ -1638,7 +1663,7 @@
         <v>23</v>
       </c>
       <c r="C58" s="26" t="n">
-        <v>42369</v>
+        <v>45291</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>26</v>
@@ -1935,40 +1960,42 @@
       <c r="B127" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C127" s="35"/>
+      <c r="C127" s="35" t="s">
+        <v>62</v>
+      </c>
       <c r="D127" s="25" t="s">
         <v>20</v>
       </c>
       <c r="H127" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B128" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D128" s="25" t="s">
         <v>20</v>
       </c>
       <c r="H128" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D129" s="25" t="s">
         <v>20</v>
@@ -1976,7 +2003,7 @@
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>10</v>
@@ -1992,65 +2019,69 @@
         <v>0.05</v>
       </c>
       <c r="H130" s="33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B131" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="32"/>
+      <c r="C131" s="32" t="s">
+        <v>72</v>
+      </c>
       <c r="D131" s="25" t="s">
         <v>20</v>
       </c>
       <c r="H131" s="33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B132" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="34"/>
+      <c r="C132" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="D132" s="25" t="s">
         <v>20</v>
       </c>
       <c r="H132" s="33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B133" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D133" s="25" t="s">
         <v>20</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B134" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C134" s="32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D134" s="25" t="s">
         <v>20</v>
@@ -2058,7 +2089,7 @@
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>10</v>
@@ -2070,7 +2101,7 @@
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B136" s="19" t="s">
         <v>10</v>
@@ -2083,7 +2114,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>10</v>
@@ -2095,7 +2126,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B138" s="19" t="s">
         <v>10</v>
@@ -2104,7 +2135,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B139" s="19" t="s">
         <v>10</v>
@@ -2113,7 +2144,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B140" s="19" t="s">
         <v>10</v>
@@ -2142,7 +2173,7 @@
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="161" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B161" s="19" t="s">
         <v>10</v>
@@ -2151,7 +2182,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>10</v>
@@ -2160,7 +2191,7 @@
     </row>
     <row r="163" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E163" s="21" t="s">
         <v>53</v>
@@ -2169,12 +2200,12 @@
         <v>4</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E164" s="21" t="s">
         <v>53</v>
@@ -2183,13 +2214,13 @@
         <v>0.5</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="166" s="18" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B166" s="16"/>
       <c r="C166" s="17"/>
@@ -2201,7 +2232,7 @@
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B167" s="19" t="s">
         <v>10</v>
@@ -2213,13 +2244,16 @@
       <c r="E167" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F167" s="28" t="n">
-        <v>90</v>
+      <c r="F167" s="36" t="n">
+        <v>88.55</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B168" s="19" t="s">
         <v>10</v>
@@ -2237,7 +2271,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B169" s="19" t="s">
         <v>10</v>
@@ -2253,12 +2287,12 @@
         <v>1500</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>10</v>
@@ -2274,12 +2308,12 @@
         <v>0</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B171" s="19" t="s">
         <v>10</v>
@@ -2297,7 +2331,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B172" s="19" t="s">
         <v>10</v>
@@ -2323,7 +2357,7 @@
     <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>10</v>
@@ -2339,13 +2373,13 @@
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D182" s="25" t="s">
         <v>20</v>
@@ -2359,13 +2393,13 @@
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B183" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D183" s="25" t="s">
         <v>20</v>
@@ -2377,18 +2411,18 @@
         <v>44</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B184" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D184" s="25" t="s">
         <v>20</v>
@@ -2397,18 +2431,21 @@
         <v>53</v>
       </c>
       <c r="F184" s="28" t="n">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B185" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D185" s="25" t="s">
         <v>20</v>
@@ -2422,7 +2459,7 @@
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B186" s="19" t="s">
         <v>10</v>
@@ -2440,7 +2477,7 @@
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B187" s="19" t="s">
         <v>10</v>
@@ -2458,7 +2495,7 @@
     </row>
     <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B188" s="19" t="s">
         <v>10</v>
@@ -2491,21 +2528,21 @@
     <row r="204" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="205" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E205" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F205" s="36" t="n">
+      <c r="F205" s="37" t="n">
         <v>100000</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="206" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E206" s="21" t="s">
         <v>53</v>
@@ -2514,12 +2551,12 @@
         <v>401</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="207" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E207" s="21" t="s">
         <v>53</v>
@@ -2528,7 +2565,7 @@
         <v>400</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2550,36 +2587,36 @@
       <c r="A224" s="29"/>
       <c r="C224" s="31"/>
     </row>
-    <row r="225" s="40" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" s="41" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B225" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B225" s="38" t="s">
         <v>14</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D225" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="E225" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D225" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E225" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G225" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H225" s="39"/>
+        <v>126</v>
+      </c>
+      <c r="H225" s="40"/>
     </row>
     <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B226" s="41" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="B226" s="42" t="s">
+        <v>128</v>
       </c>
       <c r="C226" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2589,8 +2626,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E226" s="41" t="s">
-        <v>124</v>
+      <c r="E226" s="42" t="s">
+        <v>129</v>
       </c>
       <c r="F226" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2602,11 +2639,11 @@
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="B227" s="41" t="s">
-        <v>126</v>
+      <c r="A227" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B227" s="42" t="s">
+        <v>131</v>
       </c>
       <c r="C227" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2616,8 +2653,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E227" s="41" t="s">
-        <v>127</v>
+      <c r="E227" s="42" t="s">
+        <v>132</v>
       </c>
       <c r="F227" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2629,9 +2666,9 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="42"/>
-      <c r="B228" s="41" t="s">
-        <v>128</v>
+      <c r="A228" s="43"/>
+      <c r="B228" s="42" t="s">
+        <v>133</v>
       </c>
       <c r="C228" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2641,8 +2678,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E228" s="41" t="s">
-        <v>129</v>
+      <c r="E228" s="42" t="s">
+        <v>134</v>
       </c>
       <c r="F228" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2654,9 +2691,9 @@
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="42"/>
-      <c r="B229" s="41" t="s">
-        <v>130</v>
+      <c r="A229" s="43"/>
+      <c r="B229" s="42" t="s">
+        <v>135</v>
       </c>
       <c r="C229" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2666,8 +2703,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E229" s="41" t="s">
-        <v>131</v>
+      <c r="E229" s="42" t="s">
+        <v>136</v>
       </c>
       <c r="F229" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2679,9 +2716,9 @@
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="42"/>
-      <c r="B230" s="41" t="s">
-        <v>132</v>
+      <c r="A230" s="43"/>
+      <c r="B230" s="42" t="s">
+        <v>137</v>
       </c>
       <c r="C230" s="23" t="b">
         <f aca="false">TRUE()</f>
@@ -2691,8 +2728,8 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E230" s="41" t="s">
-        <v>133</v>
+      <c r="E230" s="42" t="s">
+        <v>138</v>
       </c>
       <c r="F230" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2704,9 +2741,9 @@
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="42"/>
-      <c r="B231" s="41" t="s">
-        <v>134</v>
+      <c r="A231" s="43"/>
+      <c r="B231" s="42" t="s">
+        <v>139</v>
       </c>
       <c r="C231" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2716,8 +2753,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E231" s="41" t="s">
-        <v>135</v>
+      <c r="E231" s="42" t="s">
+        <v>140</v>
       </c>
       <c r="F231" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2729,9 +2766,9 @@
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="42"/>
-      <c r="B232" s="41" t="s">
-        <v>136</v>
+      <c r="A232" s="43"/>
+      <c r="B232" s="42" t="s">
+        <v>141</v>
       </c>
       <c r="C232" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2741,8 +2778,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E232" s="41" t="s">
-        <v>137</v>
+      <c r="E232" s="42" t="s">
+        <v>142</v>
       </c>
       <c r="F232" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2754,9 +2791,9 @@
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="42"/>
-      <c r="B233" s="41" t="s">
-        <v>138</v>
+      <c r="A233" s="43"/>
+      <c r="B233" s="42" t="s">
+        <v>143</v>
       </c>
       <c r="C233" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2766,8 +2803,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E233" s="41" t="s">
-        <v>139</v>
+      <c r="E233" s="42" t="s">
+        <v>144</v>
       </c>
       <c r="F233" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2779,9 +2816,9 @@
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="42"/>
-      <c r="B234" s="41" t="s">
-        <v>140</v>
+      <c r="A234" s="43"/>
+      <c r="B234" s="42" t="s">
+        <v>145</v>
       </c>
       <c r="C234" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2791,8 +2828,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E234" s="41" t="s">
-        <v>141</v>
+      <c r="E234" s="42" t="s">
+        <v>146</v>
       </c>
       <c r="F234" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2804,9 +2841,9 @@
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="42"/>
-      <c r="B235" s="41" t="s">
-        <v>142</v>
+      <c r="A235" s="43"/>
+      <c r="B235" s="42" t="s">
+        <v>147</v>
       </c>
       <c r="C235" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2816,8 +2853,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E235" s="41" t="s">
-        <v>143</v>
+      <c r="E235" s="42" t="s">
+        <v>148</v>
       </c>
       <c r="F235" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2829,9 +2866,9 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="42"/>
-      <c r="B236" s="41" t="s">
-        <v>144</v>
+      <c r="A236" s="43"/>
+      <c r="B236" s="42" t="s">
+        <v>149</v>
       </c>
       <c r="C236" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2841,8 +2878,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E236" s="41" t="s">
-        <v>145</v>
+      <c r="E236" s="42" t="s">
+        <v>150</v>
       </c>
       <c r="F236" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2854,9 +2891,9 @@
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="42"/>
-      <c r="B237" s="41" t="s">
-        <v>146</v>
+      <c r="A237" s="43"/>
+      <c r="B237" s="42" t="s">
+        <v>151</v>
       </c>
       <c r="C237" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2866,8 +2903,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E237" s="41" t="s">
-        <v>147</v>
+      <c r="E237" s="42" t="s">
+        <v>152</v>
       </c>
       <c r="F237" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2879,9 +2916,9 @@
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="42"/>
-      <c r="B238" s="41" t="s">
-        <v>148</v>
+      <c r="A238" s="43"/>
+      <c r="B238" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="C238" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2891,8 +2928,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E238" s="41" t="s">
-        <v>149</v>
+      <c r="E238" s="42" t="s">
+        <v>154</v>
       </c>
       <c r="F238" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2904,9 +2941,9 @@
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="42"/>
-      <c r="B239" s="41" t="s">
-        <v>150</v>
+      <c r="A239" s="43"/>
+      <c r="B239" s="42" t="s">
+        <v>155</v>
       </c>
       <c r="C239" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2916,8 +2953,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E239" s="41" t="s">
-        <v>151</v>
+      <c r="E239" s="42" t="s">
+        <v>156</v>
       </c>
       <c r="F239" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2929,9 +2966,9 @@
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="42"/>
-      <c r="B240" s="41" t="s">
-        <v>152</v>
+      <c r="A240" s="43"/>
+      <c r="B240" s="42" t="s">
+        <v>157</v>
       </c>
       <c r="C240" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2941,8 +2978,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E240" s="41" t="s">
-        <v>153</v>
+      <c r="E240" s="42" t="s">
+        <v>158</v>
       </c>
       <c r="F240" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2954,9 +2991,9 @@
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="42"/>
-      <c r="B241" s="41" t="s">
-        <v>154</v>
+      <c r="A241" s="43"/>
+      <c r="B241" s="42" t="s">
+        <v>159</v>
       </c>
       <c r="C241" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2966,8 +3003,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E241" s="41" t="s">
-        <v>155</v>
+      <c r="E241" s="42" t="s">
+        <v>160</v>
       </c>
       <c r="F241" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2979,8 +3016,8 @@
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B242" s="41" t="s">
-        <v>156</v>
+      <c r="B242" s="42" t="s">
+        <v>161</v>
       </c>
       <c r="C242" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -2990,8 +3027,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E242" s="41" t="s">
-        <v>157</v>
+      <c r="E242" s="42" t="s">
+        <v>162</v>
       </c>
       <c r="F242" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -3003,8 +3040,8 @@
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B243" s="41" t="s">
-        <v>158</v>
+      <c r="B243" s="42" t="s">
+        <v>163</v>
       </c>
       <c r="C243" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -3014,8 +3051,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E243" s="41" t="s">
-        <v>159</v>
+      <c r="E243" s="42" t="s">
+        <v>164</v>
       </c>
       <c r="F243" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -3027,8 +3064,8 @@
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B244" s="41" t="s">
-        <v>160</v>
+      <c r="B244" s="42" t="s">
+        <v>165</v>
       </c>
       <c r="C244" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -3038,8 +3075,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E244" s="41" t="s">
-        <v>161</v>
+      <c r="E244" s="42" t="s">
+        <v>166</v>
       </c>
       <c r="F244" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -3051,11 +3088,11 @@
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="B245" s="41" t="s">
-        <v>163</v>
+      <c r="A245" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B245" s="42" t="s">
+        <v>168</v>
       </c>
       <c r="C245" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -3065,8 +3102,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E245" s="41" t="s">
-        <v>164</v>
+      <c r="E245" s="42" t="s">
+        <v>169</v>
       </c>
       <c r="F245" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -3078,9 +3115,9 @@
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="43"/>
-      <c r="B246" s="41" t="s">
-        <v>165</v>
+      <c r="A246" s="44"/>
+      <c r="B246" s="42" t="s">
+        <v>170</v>
       </c>
       <c r="C246" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -3090,8 +3127,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E246" s="41" t="s">
-        <v>166</v>
+      <c r="E246" s="42" t="s">
+        <v>171</v>
       </c>
       <c r="F246" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -3102,12 +3139,12 @@
         <v>0</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B247" s="41" t="s">
-        <v>168</v>
+      <c r="B247" s="42" t="s">
+        <v>173</v>
       </c>
       <c r="C247" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -3117,8 +3154,8 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E247" s="41" t="s">
-        <v>169</v>
+      <c r="E247" s="42" t="s">
+        <v>174</v>
       </c>
       <c r="F247" s="23" t="b">
         <f aca="false">FALSE()</f>
@@ -3157,7 +3194,7 @@
     <row r="273" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="274" s="18" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="15" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B274" s="16"/>
       <c r="C274" s="17"/>
@@ -3172,7 +3209,7 @@
         <v>58</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C275" s="28" t="n">
         <v>1</v>
@@ -3180,38 +3217,38 @@
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C276" s="28" t="n">
         <v>1</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C277" s="28" t="n">
         <v>1</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B278" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="B278" s="21" t="s">
-        <v>171</v>
       </c>
       <c r="C278" s="28" t="n">
         <v>1</v>
@@ -3225,7 +3262,7 @@
     <row r="288" customFormat="false" ht="0.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="298" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B298" s="16"/>
       <c r="C298" s="17"/>
@@ -3237,54 +3274,54 @@
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C299" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="C299" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D299" s="40"/>
-      <c r="E299" s="40"/>
-      <c r="F299" s="40"/>
-      <c r="G299" s="40"/>
-      <c r="H299" s="40"/>
+      <c r="D299" s="41"/>
+      <c r="E299" s="41"/>
+      <c r="F299" s="41"/>
+      <c r="G299" s="41"/>
+      <c r="H299" s="41"/>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C300" s="44" t="b">
+        <v>184</v>
+      </c>
+      <c r="C300" s="45" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B301" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C301" s="44" t="b">
+        <v>185</v>
+      </c>
+      <c r="C301" s="45" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B302" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C302" s="44" t="b">
+        <v>186</v>
+      </c>
+      <c r="C302" s="45" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B303" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C303" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" s="40" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>187</v>
+      </c>
+      <c r="C303" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" s="41" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="3"/>
@@ -3296,283 +3333,283 @@
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C305" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C305" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F305" s="37" t="s">
+      <c r="F305" s="38" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B306" s="45" t="s">
-        <v>179</v>
-      </c>
-      <c r="C306" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E306" s="45" t="s">
+      <c r="B306" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="F306" s="44" t="b">
+      <c r="C306" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E306" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="F306" s="45" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B307" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="C307" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E307" s="45" t="s">
+      <c r="B307" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="F307" s="44" t="b">
+      <c r="C307" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E307" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="F307" s="45" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="45" t="s">
+      <c r="B308" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="C308" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E308" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="F308" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B309" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C309" s="45" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E309" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F309" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B310" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="C310" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E310" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="F310" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B311" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="C308" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E308" s="45" t="s">
+      <c r="C311" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E311" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="F311" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B312" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C312" s="45" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E312" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="F312" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B313" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="F308" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="C309" s="44" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E309" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="F309" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B310" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C310" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E310" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="F310" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B311" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="C311" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E311" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="F311" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B312" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C312" s="44" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E312" s="45" t="s">
-        <v>194</v>
-      </c>
-      <c r="F312" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B313" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="C313" s="44" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E313" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="F313" s="44" t="b">
+      <c r="C313" s="45" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E313" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="F313" s="45" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B314" s="45" t="s">
-        <v>196</v>
-      </c>
-      <c r="C314" s="44" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E314" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="F314" s="44" t="b">
+      <c r="B314" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C314" s="45" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E314" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="F314" s="45" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="C315" s="44" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E315" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="F315" s="44" t="b">
+      <c r="B315" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C315" s="45" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E315" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="F315" s="45" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="45" t="s">
-        <v>200</v>
-      </c>
-      <c r="C316" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E316" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="F316" s="44" t="b">
+      <c r="B316" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C316" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E316" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="F316" s="45" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B317" s="45" t="s">
-        <v>202</v>
-      </c>
-      <c r="C317" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E317" s="45" t="s">
-        <v>203</v>
-      </c>
-      <c r="F317" s="44" t="b">
+      <c r="B317" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="C317" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E317" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="F317" s="45" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B318" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C318" s="44" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E318" s="45" t="s">
-        <v>205</v>
-      </c>
-      <c r="F318" s="44" t="b">
+      <c r="B318" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C318" s="45" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E318" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="F318" s="45" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B319" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="C319" s="44" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E319" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="F319" s="44" t="b">
+      <c r="B319" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C319" s="45" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E319" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="F319" s="45" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B320" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="C320" s="44" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E320" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="F320" s="44" t="b">
+      <c r="B320" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="C320" s="45" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E320" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="F320" s="45" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B321" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="C321" s="44" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E321" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="F321" s="44" t="b">
+      <c r="B321" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C321" s="45" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E321" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="F321" s="45" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E322" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="F322" s="44" t="b">
+      <c r="E322" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="F322" s="45" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,7 +3671,7 @@
       <formula>NOT(ISERROR(SEARCH("TRUE",F313)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="43">
+  <dataValidations count="42">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="All inputs are saved in the so-called simulation directory, which includes, excel , gdx and pickle files together with the GAMS files.&#10;&#10;The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" promptTitle="Path the simulation directory" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C34:D34" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -3646,10 +3683,6 @@
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="This is the last simulated day. It must be comprised within the range of dates provided within the data files." promptTitle="Stop day of the simulation" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C58" type="date">
       <formula1>1</formula1>
       <formula2>73051</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Historical flows" promptTitle="Historical interconnection flows" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C132" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="In case no data file is provided. This single value is used for all the sets." promptTitle="Default value" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F181:F188" type="none">
       <formula1>0</formula1>
@@ -3808,6 +3841,10 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H167" r:id="rId1" location="download-data" display="https://dev-rad-carbon-pricing.pantheonsite.io/about#download-data"/>
+    <hyperlink ref="H184" r:id="rId2" display="https://ahdb.org.uk/fuel-prices"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3826,7 +3863,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3838,77 +3875,77 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+    <row r="1" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>214</v>
+      <c r="B1" s="47" t="s">
+        <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="b">
+      <c r="A2" s="48" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="b">
+      <c r="A3" s="48" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>46</v>
@@ -3919,15 +3956,15 @@
         <v>37</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3954,964 +3991,964 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="47" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="G1" s="46" t="s">
+    <row r="1" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="D1" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="E1" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="F1" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="G1" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="H1" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="I1" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="J1" s="47" t="s">
         <v>244</v>
       </c>
+      <c r="K1" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="N1" s="47" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="47" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="48" t="b">
+      <c r="A2" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="49" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="48" t="b">
+      <c r="A3" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="49" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="B6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="N6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="48" t="b">
+      <c r="B7" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="49" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="48" t="b">
+      <c r="A8" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="49" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="48" t="b">
+      <c r="A9" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="49" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="48" t="b">
+      <c r="A10" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="49" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="48" t="b">
+      <c r="A11" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="49" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J12" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L12" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M12" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="N12" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O12" s="48" t="b">
+      <c r="A12" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O12" s="49" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G13" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J13" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M13" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="N13" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="48" t="b">
+      <c r="A13" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="49" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H14" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="L14" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="M14" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="N14" s="48" t="b">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="O14" s="48" t="b">
+      <c r="A14" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="49" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O14" s="49" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="48" t="b">
+      <c r="A15" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="49" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="48" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="48" t="b">
+      <c r="A16" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="49" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="49" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
